--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2487296433249</v>
+        <v>11.25725833333333</v>
       </c>
       <c r="H2">
-        <v>11.2487296433249</v>
+        <v>33.771775</v>
       </c>
       <c r="I2">
-        <v>0.1240370673026016</v>
+        <v>0.1213189509762199</v>
       </c>
       <c r="J2">
-        <v>0.1240370673026016</v>
+        <v>0.1213189509762199</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.719947654081843</v>
+        <v>0.130725</v>
       </c>
       <c r="N2">
-        <v>0.719947654081843</v>
+        <v>0.392175</v>
       </c>
       <c r="O2">
-        <v>0.7948309025637101</v>
+        <v>0.1184385768344502</v>
       </c>
       <c r="P2">
-        <v>0.7948309025637101</v>
+        <v>0.1184385768344502</v>
       </c>
       <c r="Q2">
-        <v>8.098496518112649</v>
+        <v>1.471605095625</v>
       </c>
       <c r="R2">
-        <v>8.098496518112649</v>
+        <v>13.244445860625</v>
       </c>
       <c r="S2">
-        <v>0.09858849415548247</v>
+        <v>0.01436884389667193</v>
       </c>
       <c r="T2">
-        <v>0.09858849415548247</v>
+        <v>0.01436884389667193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2487296433249</v>
+        <v>11.25725833333333</v>
       </c>
       <c r="H3">
-        <v>11.2487296433249</v>
+        <v>33.771775</v>
       </c>
       <c r="I3">
-        <v>0.1240370673026016</v>
+        <v>0.1213189509762199</v>
       </c>
       <c r="J3">
-        <v>0.1240370673026016</v>
+        <v>0.1213189509762199</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185839541357674</v>
+        <v>0.7274516666666667</v>
       </c>
       <c r="N3">
-        <v>0.185839541357674</v>
+        <v>2.182355</v>
       </c>
       <c r="O3">
-        <v>0.2051690974362899</v>
+        <v>0.6590808193983468</v>
       </c>
       <c r="P3">
-        <v>0.2051690974362899</v>
+        <v>0.659080819398347</v>
       </c>
       <c r="Q3">
-        <v>2.090458757771971</v>
+        <v>8.189111336680556</v>
       </c>
       <c r="R3">
-        <v>2.090458757771971</v>
+        <v>73.702002030125</v>
       </c>
       <c r="S3">
-        <v>0.02544857314711911</v>
+        <v>0.07995899361795492</v>
       </c>
       <c r="T3">
-        <v>0.02544857314711911</v>
+        <v>0.0799589936179549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.5763333884082</v>
+        <v>11.25725833333333</v>
       </c>
       <c r="H4">
-        <v>18.5763333884082</v>
+        <v>33.771775</v>
       </c>
       <c r="I4">
-        <v>0.2048368116039538</v>
+        <v>0.1213189509762199</v>
       </c>
       <c r="J4">
-        <v>0.2048368116039538</v>
+        <v>0.1213189509762199</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.719947654081843</v>
+        <v>0.24556</v>
       </c>
       <c r="N4">
-        <v>0.719947654081843</v>
+        <v>0.73668</v>
       </c>
       <c r="O4">
-        <v>0.7948309025637101</v>
+        <v>0.2224806037672029</v>
       </c>
       <c r="P4">
-        <v>0.7948309025637101</v>
+        <v>0.2224806037672029</v>
       </c>
       <c r="Q4">
-        <v>13.3739876444267</v>
+        <v>2.764332356333333</v>
       </c>
       <c r="R4">
-        <v>13.3739876444267</v>
+        <v>24.878991207</v>
       </c>
       <c r="S4">
-        <v>0.1628106278454433</v>
+        <v>0.0269911134615931</v>
       </c>
       <c r="T4">
-        <v>0.1628106278454433</v>
+        <v>0.0269911134615931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.5763333884082</v>
+        <v>18.645164</v>
       </c>
       <c r="H5">
-        <v>18.5763333884082</v>
+        <v>55.935492</v>
       </c>
       <c r="I5">
-        <v>0.2048368116039538</v>
+        <v>0.2009380677142005</v>
       </c>
       <c r="J5">
-        <v>0.2048368116039538</v>
+        <v>0.2009380677142004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.185839541357674</v>
+        <v>0.130725</v>
       </c>
       <c r="N5">
-        <v>0.185839541357674</v>
+        <v>0.392175</v>
       </c>
       <c r="O5">
-        <v>0.2051690974362899</v>
+        <v>0.1184385768344502</v>
       </c>
       <c r="P5">
-        <v>0.2051690974362899</v>
+        <v>0.1184385768344502</v>
       </c>
       <c r="Q5">
-        <v>3.452217277009026</v>
+        <v>2.4373890639</v>
       </c>
       <c r="R5">
-        <v>3.452217277009026</v>
+        <v>21.9365015751</v>
       </c>
       <c r="S5">
-        <v>0.04202618375851055</v>
+        <v>0.0237988187719343</v>
       </c>
       <c r="T5">
-        <v>0.04202618375851055</v>
+        <v>0.0237988187719343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.8536206184489</v>
+        <v>18.645164</v>
       </c>
       <c r="H6">
-        <v>32.8536206184489</v>
+        <v>55.935492</v>
       </c>
       <c r="I6">
-        <v>0.3622690633517774</v>
+        <v>0.2009380677142005</v>
       </c>
       <c r="J6">
-        <v>0.3622690633517774</v>
+        <v>0.2009380677142004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.719947654081843</v>
+        <v>0.7274516666666667</v>
       </c>
       <c r="N6">
-        <v>0.719947654081843</v>
+        <v>2.182355</v>
       </c>
       <c r="O6">
-        <v>0.7948309025637101</v>
+        <v>0.6590808193983468</v>
       </c>
       <c r="P6">
-        <v>0.7948309025637101</v>
+        <v>0.659080819398347</v>
       </c>
       <c r="Q6">
-        <v>23.65288709234715</v>
+        <v>13.56345562707333</v>
       </c>
       <c r="R6">
-        <v>23.65288709234715</v>
+        <v>122.07110064366</v>
       </c>
       <c r="S6">
-        <v>0.2879426465948032</v>
+        <v>0.1324344263173957</v>
       </c>
       <c r="T6">
-        <v>0.2879426465948032</v>
+        <v>0.1324344263173957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.8536206184489</v>
+        <v>18.645164</v>
       </c>
       <c r="H7">
-        <v>32.8536206184489</v>
+        <v>55.935492</v>
       </c>
       <c r="I7">
-        <v>0.3622690633517774</v>
+        <v>0.2009380677142005</v>
       </c>
       <c r="J7">
-        <v>0.3622690633517774</v>
+        <v>0.2009380677142004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.185839541357674</v>
+        <v>0.24556</v>
       </c>
       <c r="N7">
-        <v>0.185839541357674</v>
+        <v>0.73668</v>
       </c>
       <c r="O7">
-        <v>0.2051690974362899</v>
+        <v>0.2224806037672029</v>
       </c>
       <c r="P7">
-        <v>0.2051690974362899</v>
+        <v>0.2224806037672029</v>
       </c>
       <c r="Q7">
-        <v>6.105501787671566</v>
+        <v>4.578506471839999</v>
       </c>
       <c r="R7">
-        <v>6.105501787671566</v>
+        <v>41.20655824656</v>
       </c>
       <c r="S7">
-        <v>0.0743264167569743</v>
+        <v>0.04470482262487042</v>
       </c>
       <c r="T7">
-        <v>0.0743264167569743</v>
+        <v>0.04470482262487042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.3771991891261</v>
+        <v>32.95867399999999</v>
       </c>
       <c r="H8">
-        <v>22.3771991891261</v>
+        <v>98.87602199999999</v>
       </c>
       <c r="I8">
-        <v>0.2467480551025976</v>
+        <v>0.3551941011611514</v>
       </c>
       <c r="J8">
-        <v>0.2467480551025976</v>
+        <v>0.3551941011611514</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.719947654081843</v>
+        <v>0.130725</v>
       </c>
       <c r="N8">
-        <v>0.719947654081843</v>
+        <v>0.392175</v>
       </c>
       <c r="O8">
-        <v>0.7948309025637101</v>
+        <v>0.1184385768344502</v>
       </c>
       <c r="P8">
-        <v>0.7948309025637101</v>
+        <v>0.1184385768344502</v>
       </c>
       <c r="Q8">
-        <v>16.11041206113346</v>
+        <v>4.308522658649999</v>
       </c>
       <c r="R8">
-        <v>16.11041206113346</v>
+        <v>38.77670392784999</v>
       </c>
       <c r="S8">
-        <v>0.1961229793430377</v>
+        <v>0.04206868384151852</v>
       </c>
       <c r="T8">
-        <v>0.1961229793430377</v>
+        <v>0.04206868384151852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.3771991891261</v>
+        <v>32.95867399999999</v>
       </c>
       <c r="H9">
-        <v>22.3771991891261</v>
+        <v>98.87602199999999</v>
       </c>
       <c r="I9">
-        <v>0.2467480551025976</v>
+        <v>0.3551941011611514</v>
       </c>
       <c r="J9">
-        <v>0.2467480551025976</v>
+        <v>0.3551941011611514</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.185839541357674</v>
+        <v>0.7274516666666667</v>
       </c>
       <c r="N9">
-        <v>0.185839541357674</v>
+        <v>2.182355</v>
       </c>
       <c r="O9">
-        <v>0.2051690974362899</v>
+        <v>0.6590808193983468</v>
       </c>
       <c r="P9">
-        <v>0.2051690974362899</v>
+        <v>0.659080819398347</v>
       </c>
       <c r="Q9">
-        <v>4.158568434176509</v>
+        <v>23.97584233242333</v>
       </c>
       <c r="R9">
-        <v>4.158568434176509</v>
+        <v>215.78258099181</v>
       </c>
       <c r="S9">
-        <v>0.05062507575955987</v>
+        <v>0.234101619238751</v>
       </c>
       <c r="T9">
-        <v>0.05062507575955987</v>
+        <v>0.234101619238751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.63256931413109</v>
+        <v>32.95867399999999</v>
       </c>
       <c r="H10">
-        <v>5.63256931413109</v>
+        <v>98.87602199999999</v>
       </c>
       <c r="I10">
-        <v>0.06210900263906959</v>
+        <v>0.3551941011611514</v>
       </c>
       <c r="J10">
-        <v>0.06210900263906959</v>
+        <v>0.3551941011611514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.719947654081843</v>
+        <v>0.24556</v>
       </c>
       <c r="N10">
-        <v>0.719947654081843</v>
+        <v>0.73668</v>
       </c>
       <c r="O10">
-        <v>0.7948309025637101</v>
+        <v>0.2224806037672029</v>
       </c>
       <c r="P10">
-        <v>0.7948309025637101</v>
+        <v>0.2224806037672029</v>
       </c>
       <c r="Q10">
-        <v>4.055155064162054</v>
+        <v>8.093331987439999</v>
       </c>
       <c r="R10">
-        <v>4.055155064162054</v>
+        <v>72.83998788695999</v>
       </c>
       <c r="S10">
-        <v>0.04936615462494354</v>
+        <v>0.0790237980808819</v>
       </c>
       <c r="T10">
-        <v>0.04936615462494354</v>
+        <v>0.07902379808088192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.97572</v>
+      </c>
+      <c r="H11">
+        <v>71.92716</v>
+      </c>
+      <c r="I11">
+        <v>0.2583852225089954</v>
+      </c>
+      <c r="J11">
+        <v>0.2583852225089954</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.130725</v>
+      </c>
+      <c r="N11">
+        <v>0.392175</v>
+      </c>
+      <c r="O11">
+        <v>0.1184385768344502</v>
+      </c>
+      <c r="P11">
+        <v>0.1184385768344502</v>
+      </c>
+      <c r="Q11">
+        <v>3.134225997</v>
+      </c>
+      <c r="R11">
+        <v>28.208033973</v>
+      </c>
+      <c r="S11">
+        <v>0.03060277802901817</v>
+      </c>
+      <c r="T11">
+        <v>0.03060277802901817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>23.97572</v>
+      </c>
+      <c r="H12">
+        <v>71.92716</v>
+      </c>
+      <c r="I12">
+        <v>0.2583852225089954</v>
+      </c>
+      <c r="J12">
+        <v>0.2583852225089954</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7274516666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.182355</v>
+      </c>
+      <c r="O12">
+        <v>0.6590808193983468</v>
+      </c>
+      <c r="P12">
+        <v>0.659080819398347</v>
+      </c>
+      <c r="Q12">
+        <v>17.44117747353333</v>
+      </c>
+      <c r="R12">
+        <v>156.9705972618</v>
+      </c>
+      <c r="S12">
+        <v>0.1702967441716529</v>
+      </c>
+      <c r="T12">
+        <v>0.1702967441716529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.63256931413109</v>
-      </c>
-      <c r="H11">
-        <v>5.63256931413109</v>
-      </c>
-      <c r="I11">
-        <v>0.06210900263906959</v>
-      </c>
-      <c r="J11">
-        <v>0.06210900263906959</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.185839541357674</v>
-      </c>
-      <c r="N11">
-        <v>0.185839541357674</v>
-      </c>
-      <c r="O11">
-        <v>0.2051690974362899</v>
-      </c>
-      <c r="P11">
-        <v>0.2051690974362899</v>
-      </c>
-      <c r="Q11">
-        <v>1.04675409800343</v>
-      </c>
-      <c r="R11">
-        <v>1.04675409800343</v>
-      </c>
-      <c r="S11">
-        <v>0.01274284801412605</v>
-      </c>
-      <c r="T11">
-        <v>0.01274284801412605</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.97572</v>
+      </c>
+      <c r="H13">
+        <v>71.92716</v>
+      </c>
+      <c r="I13">
+        <v>0.2583852225089954</v>
+      </c>
+      <c r="J13">
+        <v>0.2583852225089954</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.24556</v>
+      </c>
+      <c r="N13">
+        <v>0.73668</v>
+      </c>
+      <c r="O13">
+        <v>0.2224806037672029</v>
+      </c>
+      <c r="P13">
+        <v>0.2224806037672029</v>
+      </c>
+      <c r="Q13">
+        <v>5.887477803199999</v>
+      </c>
+      <c r="R13">
+        <v>52.9873002288</v>
+      </c>
+      <c r="S13">
+        <v>0.05748570030832437</v>
+      </c>
+      <c r="T13">
+        <v>0.05748570030832437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.953784333333334</v>
+      </c>
+      <c r="H14">
+        <v>17.861353</v>
+      </c>
+      <c r="I14">
+        <v>0.06416365763943291</v>
+      </c>
+      <c r="J14">
+        <v>0.06416365763943289</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.130725</v>
+      </c>
+      <c r="N14">
+        <v>0.392175</v>
+      </c>
+      <c r="O14">
+        <v>0.1184385768344502</v>
+      </c>
+      <c r="P14">
+        <v>0.1184385768344502</v>
+      </c>
+      <c r="Q14">
+        <v>0.7783084569750002</v>
+      </c>
+      <c r="R14">
+        <v>7.004776112775001</v>
+      </c>
+      <c r="S14">
+        <v>0.007599452295307335</v>
+      </c>
+      <c r="T14">
+        <v>0.007599452295307334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.953784333333334</v>
+      </c>
+      <c r="H15">
+        <v>17.861353</v>
+      </c>
+      <c r="I15">
+        <v>0.06416365763943291</v>
+      </c>
+      <c r="J15">
+        <v>0.06416365763943289</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7274516666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.182355</v>
+      </c>
+      <c r="O15">
+        <v>0.6590808193983468</v>
+      </c>
+      <c r="P15">
+        <v>0.659080819398347</v>
+      </c>
+      <c r="Q15">
+        <v>4.331090336257223</v>
+      </c>
+      <c r="R15">
+        <v>38.97981302631501</v>
+      </c>
+      <c r="S15">
+        <v>0.04228903605259244</v>
+      </c>
+      <c r="T15">
+        <v>0.04228903605259244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.953784333333334</v>
+      </c>
+      <c r="H16">
+        <v>17.861353</v>
+      </c>
+      <c r="I16">
+        <v>0.06416365763943291</v>
+      </c>
+      <c r="J16">
+        <v>0.06416365763943289</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.24556</v>
+      </c>
+      <c r="N16">
+        <v>0.73668</v>
+      </c>
+      <c r="O16">
+        <v>0.2224806037672029</v>
+      </c>
+      <c r="P16">
+        <v>0.2224806037672029</v>
+      </c>
+      <c r="Q16">
+        <v>1.462011280893333</v>
+      </c>
+      <c r="R16">
+        <v>13.15810152804</v>
+      </c>
+      <c r="S16">
+        <v>0.01427516929153313</v>
+      </c>
+      <c r="T16">
+        <v>0.01427516929153313</v>
       </c>
     </row>
   </sheetData>
